--- a/Docs/Testing (TES)/Test_Cases/TS_Buy.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Buy.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20055" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
     <sheet name="Тестирование" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>N</t>
   </si>
@@ -105,14 +105,65 @@
     <t>Убедиться, что браузер не выдает ошибку при загрузке страницы</t>
   </si>
   <si>
-    <t>убедиться, что на странице присутствуют только следующие элементы: поля для ввода и они пустые имени, фамилии, адреса проживания, адреса электронной почты и кнопка "Buy photo" неактивна</t>
-  </si>
-  <si>
-    <t>Убедиться, что поля для ввода имени, адреса проживания и адреса электронной почты помечены символом *</t>
+    <t>1. Корректно ввести данные во все поля для ввода, кроме поля e-mail                                                                                                                                                2. В поле ввода e-mail некорректно вводим адрес                                                                                     3. Нажать кнопку "Buy photo"                                                                                                  4. Убедиться, что все поля остались без изменений, а рядом с полем ввода e-mail                                                                  предупреждение о некорректном вводе e-mail</t>
+  </si>
+  <si>
+    <t>Рисунок 1</t>
+  </si>
+  <si>
+    <t>Корректный ввод данных - такой ввод данных, который соответствует области допустимых значений согласно рисунку 1</t>
+  </si>
+  <si>
+    <t>Доплнительные условия, выполняемые перед каждым тестом:</t>
+  </si>
+  <si>
+    <t>Назначаем тестовый e-mail в качестве адреса e-mail почты владельца сайта</t>
+  </si>
+  <si>
+    <t>Очищаем весь проект (удаляем все фото из аккаунта тестового, альбомы)</t>
+  </si>
+  <si>
+    <t>Добавляем в тестовый аккаунт 5 фото</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переходим по адресу http://www.vashchenko.ru </t>
+  </si>
+  <si>
+    <t>Дополнительные условия:</t>
+  </si>
+  <si>
+    <t>После каждого добавления фото в тестовый акаунт заходим в админку в раздел Forsed Update и нажимаем кнопку Forsed Update и убеждаемся, что обновление прошло успешно</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>нет кнопки Bye photo есть submit и она активна</t>
+  </si>
+  <si>
+    <t>неотмечено</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Blocked                               3. Blocked                      4. Pass                             5. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Blocked                      4. Pass</t>
+  </si>
+  <si>
+    <t>убедиться, что на странице присутствуют только следующие элементы: поля для ввода и они пустые имени, фамилии, адреса проживания, адреса электронной почты, capcha и кнопка "Buy photo" неактивна</t>
+  </si>
+  <si>
+    <t>Убедиться, что поля для ввода имени, адреса проживания, адреса электронной почты и capcha помечены символом *</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Заполнить все поля соответствующими корректными данными (рисунок 1)                                                                                           2. Убедиться, что кнопка "Buy photo" стала активной                                                                              3. Нажать кнопку  "Buy photo"                                                                         4. Убедиться, что письмо с инструкциями по приобретению фото пришло на адрес электронной почты, который был введен в поле ввода адреса электронной почты                                                     5. убеждаемся, что письмо с уведомлением о приобретении фото </t>
+      <t xml:space="preserve">1. Заполнить все поля соответствующими корректными данными (рисунок 1) и заполнить корректно capcha                                                                                          2. Убедиться, что кнопка "Buy photo" стала активной                                                                              3. Нажать кнопку  "Buy photo"                                                                         4. Убедиться, что письмо с инструкциями по приобретению фото пришло на адрес электронной почты, который был введен в поле ввода адреса электронной почты                                                     5. убеждаемся, что письмо с уведомлением о приобретении фото </t>
     </r>
     <r>
       <rPr>
@@ -126,44 +177,35 @@
     </r>
   </si>
   <si>
-    <t>1. Во всех возможных комбинациях заполнить часть обязательных полей соответствующими корректными данными (рисунок 1)                                                                                                                                  2. Убедиться, что кнопка "Buy photo" стала активной                                                                              3. Нажать кнопку  "Buy photo"                                                                            4. Убедиться, что возле незаполненных обязательных полей появились предупреждения о необходимости их заполнить и курсор стоит в первом незаполненном обязательном поле</t>
-  </si>
-  <si>
-    <t>1. Корректно ввести данные во все поля для ввода, кроме поля e-mail                                                                                                                                                2. В поле ввода e-mail некорректно вводим адрес                                                                                     3. Нажать кнопку "Buy photo"                                                                                                  4. Убедиться, что все поля остались без изменений, а рядом с полем ввода e-mail                                                                  предупреждение о некорректном вводе e-mail</t>
-  </si>
-  <si>
-    <t>Рисунок 1</t>
-  </si>
-  <si>
-    <t>Корректный ввод данных - такой ввод данных, который соответствует области допустимых значений согласно рисунку 1</t>
-  </si>
-  <si>
-    <t>Доплнительные условия, выполняемые перед каждым тестом:</t>
-  </si>
-  <si>
-    <t>Назначаем тестовый e-mail в качестве адреса e-mail почты владельца сайта</t>
-  </si>
-  <si>
-    <t>Очищаем весь проект (удаляем все фото из аккаунта тестового, альбомы)</t>
-  </si>
-  <si>
-    <t>Добавляем в тестовый аккаунт 5 фото</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переходим по адресу http://www.vashchenko.ru </t>
-  </si>
-  <si>
-    <t>Дополнительные условия:</t>
-  </si>
-  <si>
-    <t>После каждого добавления фото в тестовый акаунт заходим в админку в раздел Forsed Update и нажимаем кнопку Forsed Update и убеждаемся, что обновление прошло успешно</t>
+    <t>1. Во всех возможных комбинациях заполнить часть обязательных полей соответствующими корректными данными (рисунок 1) и заполнить корректно capcha                                                                                                                                  2. Убедиться, что кнопка "Buy photo" стала активной                                                                              3. Нажать кнопку  "Buy photo"                                                                            4. Убедиться, что возле незаполненных обязательных полей появились предупреждения о необходимости их заполнить и курсор стоит в первом незаполненном обязательном поле</t>
+  </si>
+  <si>
+    <t>1. Заполнить все поля соответствующими корректными данными (рисунок 1) и заполнить некорректно capcha                                                                                          2. Убедиться, что кнопка "Buy photo" стала активной                                                                              3. Нажать кнопку  "Buy photo"                                                                         4. Убедиться, что вышло сообщение о некорректно введенном поле capcha</t>
+  </si>
+  <si>
+    <t>тестирование на поведение системы при нажатии кнопки "Buy photo" при некорректно введенной capcha</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Blocked                               3. Blocked                      4. Pass</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Blocked                      3. Blocked                      4. Pass</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +234,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -238,10 +285,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,6 +293,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -257,9 +310,6 @@
   <dxfs count="19">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -270,9 +320,29 @@
       <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -282,6 +352,9 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -300,22 +373,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,14 +432,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="1">
-  <autoFilter ref="A1:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="17"/>
-    <tableColumn id="2" name="Test ID" dataDxfId="16"/>
+    <tableColumn id="1" name="N" dataDxfId="5"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="4"/>
     <tableColumn id="3" name="Test description" dataDxfId="3"/>
-    <tableColumn id="4" name="Product" dataDxfId="15"/>
-    <tableColumn id="5" name="Requirement" dataDxfId="2"/>
+    <tableColumn id="4" name="Product" dataDxfId="2"/>
+    <tableColumn id="5" name="Requirement" dataDxfId="1"/>
     <tableColumn id="7" name="Test steps" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -389,18 +447,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
-    <tableColumn id="2" name="N" dataDxfId="12"/>
-    <tableColumn id="3" name="Test ID" dataDxfId="11"/>
-    <tableColumn id="5" name="Product" dataDxfId="10"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="9"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="8"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="7"/>
-    <tableColumn id="9" name="Result" dataDxfId="6"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="5"/>
-    <tableColumn id="11" name="System" dataDxfId="4"/>
+    <tableColumn id="2" name="N" dataDxfId="16"/>
+    <tableColumn id="3" name="Test ID" dataDxfId="15"/>
+    <tableColumn id="5" name="Product" dataDxfId="14"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="8"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="13"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="12"/>
+    <tableColumn id="9" name="Result" dataDxfId="11"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="10"/>
+    <tableColumn id="11" name="System" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +800,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -762,11 +820,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -782,11 +840,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -806,7 +864,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -822,11 +880,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -842,21 +900,39 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -872,16 +948,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="3"/>
@@ -905,7 +981,7 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -937,63 +1013,63 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="2:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="50" spans="3:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
+      <c r="C54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1040,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,16 +1163,214 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Buy.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Buy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20055" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="15270" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>N</t>
   </si>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>нет кнопки Bye photo есть submit и она активна</t>
-  </si>
-  <si>
-    <t>неотмечено</t>
   </si>
   <si>
     <t>1. Pass                             2. Blocked                               3. Blocked                      4. Pass                             5. Pass</t>
@@ -199,6 +193,9 @@
   </si>
   <si>
     <t>Blocked</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
@@ -260,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -293,6 +290,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -300,14 +303,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -336,44 +374,6 @@
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,33 +432,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="5"/>
-    <tableColumn id="2" name="Test ID" dataDxfId="4"/>
-    <tableColumn id="3" name="Test description" dataDxfId="3"/>
-    <tableColumn id="4" name="Product" dataDxfId="2"/>
-    <tableColumn id="5" name="Requirement" dataDxfId="1"/>
-    <tableColumn id="7" name="Test steps" dataDxfId="0"/>
+    <tableColumn id="1" name="N" dataDxfId="16"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="15"/>
+    <tableColumn id="3" name="Test description" dataDxfId="14"/>
+    <tableColumn id="4" name="Product" dataDxfId="13"/>
+    <tableColumn id="5" name="Requirement" dataDxfId="12"/>
+    <tableColumn id="7" name="Test steps" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I15"/>
   <tableColumns count="9">
-    <tableColumn id="2" name="N" dataDxfId="16"/>
-    <tableColumn id="3" name="Test ID" dataDxfId="15"/>
-    <tableColumn id="5" name="Product" dataDxfId="14"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="8"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="13"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="12"/>
-    <tableColumn id="9" name="Result" dataDxfId="11"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="10"/>
-    <tableColumn id="11" name="System" dataDxfId="9"/>
+    <tableColumn id="2" name="N" dataDxfId="8"/>
+    <tableColumn id="3" name="Test ID" dataDxfId="7"/>
+    <tableColumn id="5" name="Product" dataDxfId="6"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="5"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="4"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="3"/>
+    <tableColumn id="9" name="Result" dataDxfId="2"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="1"/>
+    <tableColumn id="11" name="System" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -924,7 +924,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="11"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1051,19 +1051,19 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="2:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="50" spans="3:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
@@ -1116,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1213,10 +1213,10 @@
         <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
         <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1265,14 +1265,14 @@
         <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1292,14 +1292,14 @@
         <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1319,14 +1319,14 @@
         <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1346,30 +1346,203 @@
         <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
